--- a/data/trans_camb/P16A09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,4; 2,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 4,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,94; 0,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 11,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 7,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 4,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 5,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 4,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 2,2</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>210,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,7%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,62; 1689,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,58; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,16; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,99; 475,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,0; 386,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,22; 209,25</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 0,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; -0,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 1,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 3,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 2,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 5,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 1,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 0,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 3,12</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,75%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,31; 28,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,74; -24,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,97; 91,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,17; 104,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,86; 78,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,35; 200,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,46; 59,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,47; 15,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 115,28</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 1,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; -0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 0,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 3,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 1,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 1,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 2,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 0,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 0,72</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,82%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,3%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,41; 54,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,44; 6,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,41; 21,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,37; 105,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,32; 31,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,4; 56,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,76; 64,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,83; 5,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,59; 24,29</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,49</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 0,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 0,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 0,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,74; 0,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 0,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,66; -0,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 0,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; -0,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; -0,07</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,42%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,31%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,66%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,27; 71,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,76; 45,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,98; 54,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,09; 20,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,33; 4,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,14; -7,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,62; 12,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,28; -2,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,39; -2,0</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 0,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; -1,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; -0,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 2,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; -0,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 3,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 1,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; -1,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 1,6</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,68%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,43%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,86%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,8; 15,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,63; -42,46</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,56; -1,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,2; 59,46</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,86; -2,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,5; 72,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,92; 32,54</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,63; -26,82</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,04; 40,1</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 0,03</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; -0,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; -0,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 1,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; -0,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,65</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 0,62</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; -0,84</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 0,5</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,29%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,23%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,06%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,21%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,5%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,39%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,7%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,8; 1,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,14; -33,94</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,81; -8,47</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,1; 42,58</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,89; -6,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 37,42</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,41; 16,59</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,62; -22,39</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,64; 14,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>1,07</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 2,36</t>
+          <t>-2,84; 0,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 4,92</t>
+          <t>-3,21; -0,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 0,01</t>
+          <t>-2,23; 1,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 11,31</t>
+          <t>-0,76; 3,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 7,74</t>
+          <t>-1,78; 2,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,65</t>
+          <t>0,59; 4,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 5,35</t>
+          <t>-1,13; 1,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,8</t>
+          <t>-1,85; 0,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 2,2</t>
+          <t>-0,16; 2,49</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-36,55%</t>
+          <t>-39,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>-55,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-82,96%</t>
+          <t>-17,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>210,99%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,28%</t>
+          <t>67,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>77,94%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>-21,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>31,99%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,03; 16,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,56; -7,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,85; 49,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,62; 1689,52</t>
+          <t>-18,46; 130,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,58; —</t>
+          <t>-39,22; 83,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,16; —</t>
+          <t>12,56; 171,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,99; 475,98</t>
+          <t>-28,44; 58,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,0; 386,97</t>
+          <t>-46,88; 24,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,22; 209,25</t>
+          <t>-4,3; 101,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-0,8</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,44</t>
+          <t>-1,82; 1,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -0,79</t>
+          <t>-2,68; -0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 1,92</t>
+          <t>-2,87; -0,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,38</t>
+          <t>-0,29; 3,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 2,21</t>
+          <t>-2,72; 1,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,89</t>
+          <t>-1,67; 1,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,56</t>
+          <t>-0,5; 2,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 0,31</t>
+          <t>-2,14; 0,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,12</t>
+          <t>-2,04; 0,35</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-40,13%</t>
+          <t>-11,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-72,2%</t>
+          <t>-45,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>-48,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,31%</t>
+          <t>-16,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>76,27%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,78%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-33,18%</t>
+          <t>-26,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>-21,79%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,31; 28,96</t>
+          <t>-49,41; 54,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-93,74; -24,84</t>
+          <t>-71,44; 6,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,97; 91,87</t>
+          <t>-77,2; -6,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 104,02</t>
+          <t>-6,37; 105,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,86; 78,01</t>
+          <t>-49,32; 31,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,35; 200,99</t>
+          <t>-28,9; 52,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 59,92</t>
+          <t>-11,76; 64,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,47; 15,72</t>
+          <t>-48,83; 5,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 115,28</t>
+          <t>-46,85; 10,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-1,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,03</t>
+          <t>-2,35; 0,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; -0,0</t>
+          <t>-2,35; 0,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,35</t>
+          <t>-2,45; 0,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,79</t>
+          <t>-3,74; 0,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,14</t>
+          <t>-4,59; 0,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,9</t>
+          <t>-5,59; -0,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,02</t>
+          <t>-2,36; 0,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,17</t>
+          <t>-2,88; -0,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,72</t>
+          <t>-3,14; -0,42</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,62%</t>
+          <t>-26,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-45,05%</t>
+          <t>-30,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-34,85%</t>
+          <t>-34,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>-21,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,72%</t>
+          <t>-37,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>-49,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>-22,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-26,82%</t>
+          <t>-35,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-10,3%</t>
+          <t>-42,61%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,41; 54,09</t>
+          <t>-66,27; 71,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,44; 6,25</t>
+          <t>-68,76; 45,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,41; 21,71</t>
+          <t>-69,44; 47,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 105,52</t>
+          <t>-50,09; 20,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,32; 31,5</t>
+          <t>-61,33; 4,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 56,52</t>
+          <t>-75,71; -20,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 64,76</t>
+          <t>-47,62; 12,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,83; 5,62</t>
+          <t>-57,28; -2,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,59; 24,29</t>
+          <t>-63,18; -17,26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>-2,29</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-2,38</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-0,98</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,98</t>
+          <t>-2,64; 0,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,67</t>
+          <t>-3,89; -1,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 0,84</t>
+          <t>-2,93; -0,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,92</t>
+          <t>-1,42; 2,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,09</t>
+          <t>-3,95; -0,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; -0,32</t>
+          <t>-1,34; 2,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,46</t>
+          <t>-1,6; 1,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; -0,15</t>
+          <t>-3,54; -1,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,07</t>
+          <t>-1,61; 0,93</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-26,15%</t>
+          <t>-35,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-30,61%</t>
+          <t>-74,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-30,42%</t>
+          <t>-45,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,93%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-37,66%</t>
+          <t>-36,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,16%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-22,86%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-35,31%</t>
+          <t>-49,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-34,66%</t>
+          <t>-6,31%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 71,46</t>
+          <t>-62,8; 15,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,76; 45,34</t>
+          <t>-88,63; -42,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,98; 54,58</t>
+          <t>-67,31; -6,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,09; 20,98</t>
+          <t>-22,2; 59,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,33; 4,08</t>
+          <t>-59,86; -2,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-64,14; -7,54</t>
+          <t>-20,33; 57,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,62; 12,96</t>
+          <t>-29,92; 32,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,28; -2,89</t>
+          <t>-65,63; -26,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,39; -2,0</t>
+          <t>-30,32; 24,33</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 0,36</t>
+          <t>-1,59; 0,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,89; -1,35</t>
+          <t>-2,31; -0,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,84; -0,11</t>
+          <t>-1,97; -0,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,69</t>
+          <t>-0,34; 1,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -0,19</t>
+          <t>-2,29; -0,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,57</t>
+          <t>-1,2; 1,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,25</t>
+          <t>-0,72; 0,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -1,22</t>
+          <t>-2,02; -0,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,6</t>
+          <t>-1,25; 0,16</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-35,65%</t>
+          <t>-28,29%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-74,68%</t>
+          <t>-54,23%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-43,43%</t>
+          <t>-39,75%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-36,6%</t>
+          <t>-25,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-3,87%</t>
+          <t>-0,5%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-49,86%</t>
+          <t>-35,39%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>-13,43%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-62,8; 15,68</t>
+          <t>-47,8; 1,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-88,63; -42,46</t>
+          <t>-68,14; -33,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-65,56; -1,67</t>
+          <t>-58,66; -17,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 59,46</t>
+          <t>-6,1; 42,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,86; -2,53</t>
+          <t>-41,89; -6,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 72,18</t>
+          <t>-20,8; 25,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 32,54</t>
+          <t>-16,41; 16,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-65,63; -26,82</t>
+          <t>-46,62; -22,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 40,1</t>
+          <t>-29,06; 4,48</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,82</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,42</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,59; 0,03</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; -0,86</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; -0,22</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 1,9</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; -0,26</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; 1,65</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 0,62</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; -0,84</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 0,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-28,29%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-54,23%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-33,06%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>14,76%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-25,21%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>9,61%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-0,5%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-35,39%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-3,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-47,8; 1,86</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-68,14; -33,94</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-51,81; -8,47</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-6,1; 42,58</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-41,89; -6,64</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 37,42</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-16,41; 16,59</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-46,62; -22,39</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-18,64; 14,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,25</t>
+          <t>-2,81; 0,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; -0,21</t>
+          <t>-3,18; -0,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,05</t>
+          <t>-2,14; 1,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,84</t>
+          <t>-0,59; 3,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,41</t>
+          <t>-1,94; 2,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,65</t>
+          <t>0,53; 4,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,58</t>
+          <t>-1,22; 1,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,62</t>
+          <t>-2,08; 0,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,49</t>
+          <t>-0,42; 2,3</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,03; 16,36</t>
+          <t>-70,95; 27,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-83,56; -7,33</t>
+          <t>-81,86; -0,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,85; 49,06</t>
+          <t>-57,5; 61,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 130,01</t>
+          <t>-16,06; 126,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 83,42</t>
+          <t>-41,89; 85,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,56; 171,31</t>
+          <t>10,72; 166,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 58,21</t>
+          <t>-29,63; 57,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,88; 24,51</t>
+          <t>-52,6; 19,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 101,21</t>
+          <t>-10,09; 86,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,03</t>
+          <t>-1,81; 1,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; -0,0</t>
+          <t>-2,52; 0,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; -0,13</t>
+          <t>-2,88; -0,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,79</t>
+          <t>-0,23; 3,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,14</t>
+          <t>-2,69; 1,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,79</t>
+          <t>-1,69; 1,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,02</t>
+          <t>-0,57; 2,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,17</t>
+          <t>-2,17; 0,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,35</t>
+          <t>-2,26; 0,22</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,41; 54,09</t>
+          <t>-52,93; 61,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-71,44; 6,25</t>
+          <t>-71,76; 15,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,2; -6,59</t>
+          <t>-77,98; -1,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 105,52</t>
+          <t>-3,5; 102,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,32; 31,5</t>
+          <t>-47,64; 30,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 52,49</t>
+          <t>-29,06; 48,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 64,76</t>
+          <t>-13,55; 65,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,83; 5,62</t>
+          <t>-50,92; 2,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 10,95</t>
+          <t>-51,79; 5,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,98</t>
+          <t>-2,33; 1,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,67</t>
+          <t>-2,41; 0,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,68</t>
+          <t>-2,34; 0,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,92</t>
+          <t>-3,51; 1,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,09</t>
+          <t>-4,59; 0,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; -0,91</t>
+          <t>-6,12; -1,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,46</t>
+          <t>-2,37; 0,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; -0,15</t>
+          <t>-2,87; -0,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; -0,42</t>
+          <t>-3,32; -0,62</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 71,46</t>
+          <t>-68,98; 61,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,76; 45,34</t>
+          <t>-67,98; 44,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,44; 47,34</t>
+          <t>-69,52; 35,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,09; 20,98</t>
+          <t>-49,42; 27,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,33; 4,08</t>
+          <t>-62,18; 3,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,71; -20,65</t>
+          <t>-77,48; -23,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-47,62; 12,96</t>
+          <t>-48,26; 15,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,28; -2,89</t>
+          <t>-56,41; -2,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-63,18; -17,26</t>
+          <t>-66,45; -17,48</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 0,36</t>
+          <t>-2,8; 0,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; -1,35</t>
+          <t>-3,8; -1,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; -0,27</t>
+          <t>-2,98; -0,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,69</t>
+          <t>-1,4; 2,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -0,19</t>
+          <t>-3,89; -0,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,75</t>
+          <t>-1,51; 3,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,25</t>
+          <t>-1,58; 1,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -1,22</t>
+          <t>-3,5; -1,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,93</t>
+          <t>-1,58; 1,13</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,8; 15,68</t>
+          <t>-66,29; 8,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-88,63; -42,46</t>
+          <t>-89,26; -45,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,31; -6,0</t>
+          <t>-70,51; -10,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 59,46</t>
+          <t>-21,22; 61,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-59,86; -2,53</t>
+          <t>-58,1; 2,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 57,94</t>
+          <t>-22,79; 64,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 32,54</t>
+          <t>-30,51; 25,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,63; -26,82</t>
+          <t>-66,8; -28,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,32; 24,33</t>
+          <t>-30,06; 31,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,03</t>
+          <t>-1,71; -0,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; -0,86</t>
+          <t>-2,38; -0,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,97; -0,43</t>
+          <t>-1,95; -0,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,9</t>
+          <t>-0,33; 1,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,29; -0,26</t>
+          <t>-2,31; -0,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,18</t>
+          <t>-1,11; 1,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,62</t>
+          <t>-0,69; 0,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,02; -0,84</t>
+          <t>-1,98; -0,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,16</t>
+          <t>-1,21; 0,1</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-47,8; 1,86</t>
+          <t>-49,99; -0,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-68,14; -33,94</t>
+          <t>-68,52; -34,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,66; -17,64</t>
+          <t>-56,79; -15,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 42,58</t>
+          <t>-6,03; 42,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,89; -6,64</t>
+          <t>-41,08; -6,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 25,14</t>
+          <t>-20,38; 22,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 16,59</t>
+          <t>-16,05; 18,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-46,62; -22,39</t>
+          <t>-46,32; -21,57</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 4,48</t>
+          <t>-28,35; 2,89</t>
         </is>
       </c>
     </row>
